--- a/pg/sanwa-main/FastAPI/app/templates/xlsx/Template_見積書.xlsx
+++ b/pg/sanwa-main/FastAPI/app/templates/xlsx/Template_見積書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\src\sanwa-main\FastAPI\app\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NT-250048\Desktop\YJY_三和商研受発注システム\trunk\src\sanwa-main\FastAPI\app\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,6 @@
   <definedNames>
     <definedName name="CoreCells">別紙_テンプレート!#REF!</definedName>
     <definedName name="CoreCellsRow">別紙_テンプレート!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">別紙_テンプレート!$A$1:$O$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">別紙_テンプレート!$1:$2</definedName>
     <definedName name="クレーム区分">別紙_テンプレート!#REF!</definedName>
     <definedName name="会社担当者">別紙_テンプレート!$K$16</definedName>
@@ -518,8 +517,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -587,7 +590,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>258574</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>45327</xdr:rowOff>
+      <xdr:rowOff>92952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -962,18 +965,18 @@
       <c r="N1" s="3"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52"/>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -992,7 +995,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
@@ -1636,7 +1639,7 @@
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddHeader>&amp;R&amp;P/&amp;N 頁</oddHeader>
   </headerFooter>
